--- a/AI_dataset_labeled.xlsx
+++ b/AI_dataset_labeled.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D148"/>
+  <dimension ref="A1:B148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,16 +441,6 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Решение</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>text_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
           <t>label</t>
         </is>
       </c>
@@ -461,13 +451,7 @@
           <t>№ 57 маршрут, на остановке Нурлы Жол в направлении города  водитель табличку с нумерацией включил и уехал, т.е не посадил пассажиров. Время 06-00.</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>№ 57 маршрут, на остановке нурлы жол в направлении города  водитель табличку с нумерацией включил и уехал, т.е не посадил пассажиров. время 06-00.</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
+      <c r="B2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -477,13 +461,7 @@
           <t>14 м/а с 6:00-6:31 нету автобуса с Нурлы жол в направлении города ,столько людей ждут стоят!</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>14 м/а с 6:00-6:31 нету автобуса с нурлы жол в направлении города ,столько людей ждут стоят!</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
+      <c r="B3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -493,13 +471,7 @@
           <t>06:00-06:35 аралығында «Ақ-Жайық» ТД аялдамасы «Тұлпар» сауда орталығының аялдамасы бағытында МА 22 автобусы болған жоқ.</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>06:00-06:35 аралығында «ақ-жайық» тд аялдамасы «тұлпар» сауда орталығының аялдамасы бағытында ма 22 автобусы болған жоқ.</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
+      <c r="B4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -509,13 +481,7 @@
           <t>№2,13,32, 49, 50,73 Балбала аялдамасы  Көктал ТК бағытыңа қарай  сағат 06-20 пен 06-52 кеткенге дейің желіде болмады.</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>№2,13,32, 49, 50,73 балбала аялдамасы  көктал тк бағытыңа қарай  сағат 06-20 пен 06-52 кеткенге дейің желіде болмады.</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
+      <c r="B5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -525,13 +491,7 @@
           <t>№ 18 бағдар , мем/нөмір  862 . Медицинский центр аялдамасынаң  Дом Министерств бағытыңа қарай , сағат 07-05 кеткенде алдыңғы есікті ашпады , шығуға дайындалап тұрдым .</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>№ 18 бағдар , мем/нөмір  862 . медицинский центр аялдамасынаң  дом министерств бағытыңа қарай , сағат 07-05 кеткенде алдыңғы есікті ашпады , шығуға дайындалап тұрдым .</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
+      <c r="B6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -541,13 +501,7 @@
           <t>Маршрут №51 не было автобуса с 06:55-07:30 с остановки ЖК "Орман парк" в направлении остановки Городская больница №2.</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>маршрут №51 не было автобуса с 06:55-07:30 с остановки жк "орман парк" в направлении остановки городская больница №2.</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
+      <c r="B7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -557,13 +511,7 @@
           <t>маршрут №58 продлили до ул. Карасай батыра, этот маршрут с ул.  Кенжебека Кумисбекова  как раз едет, именно в эту сторону маршруты не едут и мы постоянно пересадкой едем, если куда надо.</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>маршрут №58 продлили до ул. карасай батыра, этот маршрут с ул.  кенжебека кумисбекова  как раз едет, именно в эту сторону маршруты не едут и мы постоянно пересадкой едем, если куда надо.</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
+      <c r="B8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -573,13 +521,7 @@
           <t>м/а-16 ост. Шара Жиенкулова  в сторону  Коктал  время  07.00-08.04  до сих  пор нет автобуса  сколько можно ждать.</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>м/а-16 ост. шара жиенкулова  в сторону  коктал  время  07.00-08.04  до сих  пор нет автобуса  сколько можно ждать.</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
+      <c r="B9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -589,13 +531,7 @@
           <t>Бақылаушыға шағым м/а 44 мемлекеттік бөлме584 аялдамада Құдайбердіұлы даңғылы бағытына Жұмабаев даңғылы жүргізуші есікті артқы жағына ашпады , мен алдыңғы есікке жүгірдім, бақылаушы сол жерге кіріп, кідірді ашпады. Мен сөйлей бастадым және айқайлай бастадым .  Содан кейін ғана аштым мен жұмысқа кешігіп қалдым .</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>бақылаушыға шағым м/а 44 мемлекеттік бөлме584 аялдамада құдайбердіұлы даңғылы бағытына жұмабаев даңғылы жүргізуші есікті артқы жағына ашпады , мен алдыңғы есікке жүгірдім, бақылаушы сол жерге кіріп, кідірді ашпады. мен сөйлей бастадым және айқайлай бастадым .  содан кейін ғана аштым мен жұмысқа кешігіп қалдым .</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
+      <c r="B10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -605,13 +541,7 @@
           <t>Жалоба  на  контролеров  проверяющею  проезд  при проверке  останавливают   маршрут  полностью  и закрывают  двери  ,  постоянно происходит на остановке  Тулпар  в направление  ЖД  Вокзала . Проверяют  и потом сразу  выходят .Почему  так  у них  происходит когда  они должны выполнять работу при движения  автобуса  во   всех  маршрутах  так  происходит . Прошу  вас принять меры  мы пассажиры  чувствуем себя не ловко  ощущение,  как будто что  украли . При этом многие  пассажиры опаздывают на  работу . При обращение  к  контролёру  отвеют просто  это моя работа .Прошу  вас  принять меры  по  поводу  моего  обращения .</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>жалоба  на  контролеров  проверяющею  проезд  при проверке  останавливают   маршрут  полностью  и закрывают  двери  ,  постоянно происходит на остановке  тулпар  в направление  жд  вокзала . проверяют  и потом сразу  выходят .почему  так  у них  происходит когда  они должны выполнять работу при движения  автобуса  во   всех  маршрутах  так  происходит . прошу  вас принять меры  мы пассажиры  чувствуем себя не ловко  ощущение,  как будто что  украли . при этом многие  пассажиры опаздывают на  работу . при обращение  к  контролёру  отвеют просто  это моя работа .прошу  вас  принять меры  по  поводу  моего  обращения .</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
+      <c r="B11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -621,13 +551,7 @@
           <t>4 м/а Я пришла на остановку Улица Степана Разина, в 19:00 Мне надо было поехать в направлении Улицы Валиханова Я стояла на данной остановке до 20:00 Этот инцидент произошел вчера 01.02.25 Я смотрела по карте ехали несколько автобусов, но данных автобусов я не видела как они проезжают на данной остановке. Прошу принять меры по данному поводу.</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>4 м/а я пришла на остановку улица степана разина, в 19:00 мне надо было поехать в направлении улицы валиханова я стояла на данной остановке до 20:00 этот инцидент произошел вчера 01.02.25 я смотрела по карте ехали несколько автобусов, но данных автобусов я не видела как они проезжают на данной остановке. прошу принять меры по данному поводу.</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
+      <c r="B12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -637,13 +561,7 @@
           <t>ост.КАЗГЮА в сторону  Керуен Сити не работает информационное табло.</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>ост.казгюа в сторону  керуен сити не работает информационное табло.</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
+      <c r="B13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -653,13 +571,7 @@
           <t>МА4. код 10849. Время 10.03. С остановки Целинный в сторону Тулпар. Сотрудник Ешкенова зашла с проверкой оплаты, остановила автобус и начала в грубой форме обращаться к пассажирам, чуть ли не кидаться на всех. Не соблюдают этику и не ведут себя как положено. И почему останавливают автобус? Примите меры.</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>ма4. код 10849. время 10.03. с остановки целинный в сторону тулпар. сотрудник ешкенова зашла с проверкой оплаты, остановила автобус и начала в грубой форме обращаться к пассажирам, чуть ли не кидаться на всех. не соблюдают этику и не ведут себя как положено. и почему останавливают автобус? примите меры.</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
+      <c r="B14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -669,13 +581,7 @@
           <t>11-бағыт _x000D_ 9/30-10/13 аралығында автобус жоқ_x000D_ №3 автобус саябағы аялдамасында_x000D_ Абылай хан даңғылы бағытында</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>11-бағыт _x000d_ 9/30-10/13 аралығында автобус жоқ_x000d_ №3 автобус саябағы аялдамасында_x000d_ абылай хан даңғылы бағытында</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
+      <c r="B15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -685,13 +591,7 @@
           <t>Бүгін 02.02.25 м / а 308 мемлекеттік нөмір 241CJ01 шамамен уақыт 10.08. Мен Алау Мұз сарайы аялдамада тұрдым  Қызылжар ауылының аялдамасы бағытында 308 автобустың алдында тағы екі автобус тұрды, сол автобустар кетіп қалды 308 тіпті аялдамаға жетпей бірден кетіп қалды.</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>бүгін 02.02.25 м / а 308 мемлекеттік нөмір 241cj01 шамамен уақыт 10.08. мен алау мұз сарайы аялдамада тұрдым  қызылжар ауылының аялдамасы бағытында 308 автобустың алдында тағы екі автобус тұрды, сол автобустар кетіп қалды 308 тіпті аялдамаға жетпей бірден кетіп қалды.</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
+      <c r="B16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -701,13 +601,7 @@
           <t xml:space="preserve"> 308 маршрут  г/номер 241 СJ 01Остановка  Алау в сторону Косщы. Время10:08 .Проезд  остановки не заехаел даже.</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 308 маршрут  г/номер 241 сj 01остановка  алау в сторону косщы. время10:08 .проезд  остановки не заехаел даже.</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
+      <c r="B17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -717,13 +611,7 @@
           <t>Маршрут №14  не было автобуса с 09:30-10:30 с остановки  Театр  в направлении остановки  ТЦ Евразия._x000D_ _x000D_</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>маршрут №14  не было автобуса с 09:30-10:30 с остановки  театр  в направлении остановки  тц евразия._x000d_ _x000d_</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
+      <c r="B18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -733,13 +621,7 @@
           <t>Бүгін 02.02.25 Астана ЭКСПО аялдамасына Масаты аялдамасы бағытында 09.55 - те келдім, 43 автобус әлі жоқ, қазір 10.37. Шара қабылдауыңызды сұраймын.</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>бүгін 02.02.25 астана экспо аялдамасына масаты аялдамасы бағытында 09.55 - те келдім, 43 автобус әлі жоқ, қазір 10.37. шара қабылдауыңызды сұраймын.</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
+      <c r="B19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -749,13 +631,7 @@
           <t>Маршрут 60, 11794, 10.37 остановка  Сауран направление Ботанический сад .Контролер  зашла все заблокировала на три минуты задержала рейс. И проверяла , имеют ли право. Контролер сказала что имеет право. Жду ответа. Срочно.</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>маршрут 60, 11794, 10.37 остановка  сауран направление ботанический сад .контролер  зашла все заблокировала на три минуты задержала рейс. и проверяла , имеют ли право. контролер сказала что имеет право. жду ответа. срочно.</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
+      <c r="B20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -765,13 +641,7 @@
           <t>5, 5а Я пришел на остановку Улица Ардагерлер, в 10:55 Мне надо поехать в направлении остановки Улица Куляш Байсеитовой. Сейчас время 11:22, за это время ни одного автобуса не было.</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>5, 5а я пришел на остановку улица ардагерлер, в 10:55 мне надо поехать в направлении остановки улица куляш байсеитовой. сейчас время 11:22, за это время ни одного автобуса не было.</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
+      <c r="B21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -781,13 +651,7 @@
           <t>Маршрут 30 , время 10.40--11.21. остановка Гребной канал направление Тауелсыздык. Ожидает 40 минут.</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>маршрут 30 , время 10.40--11.21. остановка гребной канал направление тауелсыздык. ожидает 40 минут.</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
+      <c r="B22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -797,13 +661,7 @@
           <t>Маршрут № 33 Агротехникалық университет аялдамадан Агроқалашық бағытында 11:37-12:03 аралығында автобус болған жоқ.</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>маршрут № 33 агротехникалық университет аялдамадан агроқалашық бағытында 11:37-12:03 аралығында автобус болған жоқ.</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
+      <c r="B23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -813,13 +671,7 @@
           <t>Маршрут №43 не было автобуса с 11:20-12:17с остановки  Микрорайон Отау   в направлении остановки   Астана ЭКСПО.</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>маршрут №43 не было автобуса с 11:20-12:17с остановки  микрорайон отау   в направлении остановки   астана экспо.</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
+      <c r="B24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -829,13 +681,7 @@
           <t>М/а  43 ост. пункт м-он Отау направление ЖК Гранд Астана,   время ожидания 11:15-12:20.</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>м/а  43 ост. пункт м-он отау направление жк гранд астана,   время ожидания 11:15-12:20.</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
+      <c r="B25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -845,13 +691,7 @@
           <t>51 автобус ,время 12:32 , остановка ТРЦ Азия Парк в сторону Ануар , кюаркод 14232 ,водитель не ответил мне на языке обращение на мои вопрос ,вопрос был по поводу маршрута ,так как в данном маршруте отсутствовал нумерация маршрута ,вопрос был задан три раза ,требую провести беседу с водителем по данному обращению</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>51 автобус ,время 12:32 , остановка трц азия парк в сторону ануар , кюаркод 14232 ,водитель не ответил мне на языке обращение на мои вопрос ,вопрос был по поводу маршрута ,так как в данном маршруте отсутствовал нумерация маршрута ,вопрос был задан три раза ,требую провести беседу с водителем по данному обращению</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
+      <c r="B26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -861,13 +701,7 @@
           <t>16 автобус ,аялдама 19 орта мектеп бағыт СҮ Рахмет ,уақыт 12:20-12:56 күту уақыты 36 минут хабарласқанға дейін , автобус келмеді</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>16 автобус ,аялдама 19 орта мектеп бағыт сү рахмет ,уақыт 12:20-12:56 күту уақыты 36 минут хабарласқанға дейін , автобус келмеді</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
+      <c r="B27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -877,13 +711,7 @@
           <t>М/а 61, гос. № 834CU01, в 12:46 на ост. пункт школа Бином направление Ч. Айтматова автобус подъехал высадил и сделал разворот, не выехал еще на дорогу и пассажир подбежал к дверям постучал, но водитель не открыв двери уехал. Не в первый раз так делают водители, почему водители так себя ведут. Примите меры.</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>м/а 61, гос. № 834cu01, в 12:46 на ост. пункт школа бином направление ч. айтматова автобус подъехал высадил и сделал разворот, не выехал еще на дорогу и пассажир подбежал к дверям постучал, но водитель не открыв двери уехал. не в первый раз так делают водители, почему водители так себя ведут. примите меры.</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
+      <c r="B28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -893,13 +721,7 @@
           <t>м/а-71 г/н 863 ост. Ордабасы  в сторону в сторону Города  время  06.20   30.01.2025  проехал остановку не остановился из-за него на работе получили выговор.</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>м/а-71 г/н 863 ост. ордабасы  в сторону в сторону города  время  06.20   30.01.2025  проехал остановку не остановился из-за него на работе получили выговор.</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
+      <c r="B29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -909,13 +731,7 @@
           <t>Просит   водитель  м/а  14     говорит , что пассажиров   не  оплачивают  проезд  на  конечной   остановке ЖК Эльбрус   едут  одну остановку  ЖК Томирис     . Водитель просит  чтобы  отменили  по схеме  движения  остановку   ЖК Томирис.На  прямой  ехали  на  остановку  Ж/д вокзал Нурлы жол.Все  жители   не   оплачивают    проезд  едут с пересадкой  на  маршрут 11,21,48._x000D_ _x000D_ _x000D_</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>просит   водитель  м/а  14     говорит , что пассажиров   не  оплачивают  проезд  на  конечной   остановке жк эльбрус   едут  одну остановку  жк томирис     . водитель просит  чтобы  отменили  по схеме  движения  остановку   жк томирис.на  прямой  ехали  на  остановку  ж/д вокзал нурлы жол.все  жители   не   оплачивают    проезд  едут с пересадкой  на  маршрут 11,21,48._x000d_ _x000d_ _x000d_</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
+      <c r="B30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -925,13 +741,7 @@
           <t>Бүгін 02.02.25 Алматы КК аялдама бағыты бойынша Бахус СО аялдамасында сағат 13.10-дан 13.58-ге дейін 33 автобус күтіп тұрдым. Шара қабылдауды және осы бағытты бақылауға алуды сұраймын.</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>бүгін 02.02.25 алматы кк аялдама бағыты бойынша бахус со аялдамасында сағат 13.10-дан 13.58-ге дейін 33 автобус күтіп тұрдым. шара қабылдауды және осы бағытты бақылауға алуды сұраймын.</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
+      <c r="B31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -941,13 +751,7 @@
           <t>М/а 52, QR автобуса 10617,  время 14:00ч подъезжают к ост. ТД Тулпар с стороны  пр Республики, жалуется на агрессивное вождение, на несоблюдение скоростного режима, на улице скользко, он везет людей без ответственный водитель, просит принять меры.</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>м/а 52, qr автобуса 10617,  время 14:00ч подъезжают к ост. тд тулпар с стороны  пр республики, жалуется на агрессивное вождение, на несоблюдение скоростного режима, на улице скользко, он везет людей без ответственный водитель, просит принять меры.</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
+      <c r="B32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -957,13 +761,7 @@
           <t>3 раза сняли оплату Город Астана 49 маршрут</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>3 раза сняли оплату город астана 49 маршрут</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
+      <c r="B33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -973,13 +771,7 @@
           <t>501 М/а, 976 гос номер Я пришли на остановку Ақан сері к-сі, 14:00 Нам надо было поехать на остановку 150 лет Абая Автобус проехал мимо остановки в 14:25. Прошу принять меры по данному поводу.</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>501 м/а, 976 гос номер я пришли на остановку ақан сері к-сі, 14:00 нам надо было поехать на остановку 150 лет абая автобус проехал мимо остановки в 14:25. прошу принять меры по данному поводу.</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
+      <c r="B34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -989,13 +781,7 @@
           <t>Маршрут № 18 не было автобуса 14:20-14:50 с остановки  Медицинский центр в направлении мкр. Целинный.</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>маршрут № 18 не было автобуса 14:20-14:50 с остановки  медицинский центр в направлении мкр. целинный.</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
+      <c r="B35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1005,13 +791,7 @@
           <t xml:space="preserve"> маршрут 22  на остановке Тепловой участок с 13 час  45 мин до 15 час 05 мин направление города нет автобуса</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> маршрут 22  на остановке тепловой участок с 13 час  45 мин до 15 час 05 мин направление города нет автобуса</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
+      <c r="B36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1021,13 +801,7 @@
           <t>М/а 20, аялдама Алматы іскерлік үй  бағыт ТК Сарайшық,  күту уақыты 15:00-15:21, тұрғын қадағалауды талап етеді, танертен де кешкілік  уақытта осы жағдай м/а уақытылы қатынамайды.</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>м/а 20, аялдама алматы іскерлік үй  бағыт тк сарайшық,  күту уақыты 15:00-15:21, тұрғын қадағалауды талап етеді, танертен де кешкілік  уақытта осы жағдай м/а уақытылы қатынамайды.</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
+      <c r="B37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1037,13 +811,7 @@
           <t>51 маршрут _x000D_ время 15/24 _x000D_ 14010 код оплаты _x000D_ с остановки проспект Тауелсиздик в направление ЖК "Орман парк" в автобусе сильный запах солярки</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>51 маршрут _x000d_ время 15/24 _x000d_ 14010 код оплаты _x000d_ с остановки проспект тауелсиздик в направление жк "орман парк" в автобусе сильный запах солярки</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
+      <c r="B38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1053,13 +821,7 @@
           <t xml:space="preserve"> Маршрут авт №45 в 15 час  -15 час 15 мин в этот промежуток № автобуса не знает, сел ЖК Bi city Tokyo направление  Анет баба,  зашел  контролер не понятной национальности, не понимает на русском ,ни на казахском языке, карта  пластиковая не срабатывала у моего сына 13 лет карта №4002430181,контролер взяла у него 200 тенге, мотивируя тем что не оплатил. Подала на виртуальную карты 29 января 2025 г, она не активна. Что за контролеров принимают на работу, мой сын владеет в совершенстве двумя языками: Каз, рус. Почему контролер берет наличные?У контролера в руках был аппарат для проверки</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> маршрут авт №45 в 15 час  -15 час 15 мин в этот промежуток № автобуса не знает, сел жк bi city tokyo направление  анет баба,  зашел  контролер не понятной национальности, не понимает на русском ,ни на казахском языке, карта  пластиковая не срабатывала у моего сына 13 лет карта №4002430181,контролер взяла у него 200 тенге, мотивируя тем что не оплатил. подала на виртуальную карты 29 января 2025 г, она не активна. что за контролеров принимают на работу, мой сын владеет в совершенстве двумя языками: каз, рус. почему контролер берет наличные?у контролера в руках был аппарат для проверки</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
+      <c r="B39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1069,13 +831,7 @@
           <t>Контролер  крупного  тяжелого веса  женщина  зашла на  м/а  56  на   остановке     Қазақконцерт им. Розы Баглановой  в направления  ТРЦ Хан Шатыр      не  держится   при торможение автобуса,  она   лег  на меня я просто ее толкнула .Она отреагировала  повернулась и начала  возмущается  почему вы меня толкаете . Ответила  ей вы на меня легли   , она сказала автобус качает она  не виновата .Почему  контролер не  держится за  специальные  ручки .  Она  очень грубо со мной разговорила  на  повышенных тонах  и мне пришло тоже  разговаривать с ней . При этом даже  не  извинилась . А если бы был ребенок  она могла   бы  причинить боль ребёнку  . Она  вела  себя спокойно, как будто так  положено  ,что можно наваливается  на  пассажиров .Прошу  вас принять меры    по поводу моей  жалобы .</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>контролер  крупного  тяжелого веса  женщина  зашла на  м/а  56  на   остановке     қазақконцерт им. розы баглановой  в направления  трц хан шатыр      не  держится   при торможение автобуса,  она   лег  на меня я просто ее толкнула .она отреагировала  повернулась и начала  возмущается  почему вы меня толкаете . ответила  ей вы на меня легли   , она сказала автобус качает она  не виновата .почему  контролер не  держится за  специальные  ручки .  она  очень грубо со мной разговорила  на  повышенных тонах  и мне пришло тоже  разговаривать с ней . при этом даже  не  извинилась . а если бы был ребенок  она могла   бы  причинить боль ребёнку  . она  вела  себя спокойно, как будто так  положено  ,что можно наваливается  на  пассажиров .прошу  вас принять меры    по поводу моей  жалобы .</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
+      <c r="B40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1085,13 +841,7 @@
           <t>16-12 на остановке АП №1 по ул. Пушкина  в сторону рынка "Биг Шанхай"   по шоссе Алаш  ожидают а/м №11  более 35 минут</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>16-12 на остановке ап №1 по ул. пушкина  в сторону рынка "биг шанхай"   по шоссе алаш  ожидают а/м №11  более 35 минут</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
+      <c r="B41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1101,13 +851,7 @@
           <t>Маршрут №45  гос. номер 163 время 16:10  водитель проехал остановку  улица Амире Кашаубаева в направлении остановки  улица Доспамбет жырау.</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>маршрут №45  гос. номер 163 время 16:10  водитель проехал остановку  улица амире кашаубаева в направлении остановки  улица доспамбет жырау.</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
+      <c r="B42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1117,13 +861,7 @@
           <t>м/а-30 г/н554 не остановился на ост. ТЭЦ-1 в сторону левого берега  время  16.56 .</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>м/а-30 г/н554 не остановился на ост. тэц-1 в сторону левого берега  время  16.56 .</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
+      <c r="B43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1133,13 +871,7 @@
           <t>Я сегодня хотела приобрести транспортную карту в торговых павильонах iStop на двух точках ТД Коктем (направление Женис) и Медицинский Университет ( в сторону Кенесары), время 17.17. и оба закрыты. По какой причине? Указанные телефоны не отвечают. Примите меры.</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>я сегодня хотела приобрести транспортную карту в торговых павильонах istop на двух точках тд коктем (направление женис) и медицинский университет ( в сторону кенесары), время 17.17. и оба закрыты. по какой причине? указанные телефоны не отвечают. примите меры.</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
+      <c r="B44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1149,13 +881,7 @@
           <t>58  маршрут  гос номер  892,  гаражный  номер А 985 аялдама Астана МОЛЛ, автобустың  алдыңғы  жанынан  кіре бергенде  аяғын  есікпен қысып  қалды,  аяғын  алып  үлгерді, жүргізуші  есікті  жауып алып  жүріп  кетті,  есікті  ашпады.  Автобус  Республика  бағытына қарай  кетті.  сағат  17. 20 шамасында. Жүргізушіге  шара  қолдануды  сұрайды.</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>58  маршрут  гос номер  892,  гаражный  номер а 985 аялдама астана молл, автобустың  алдыңғы  жанынан  кіре бергенде  аяғын  есікпен қысып  қалды,  аяғын  алып  үлгерді, жүргізуші  есікті  жауып алып  жүріп  кетті,  есікті  ашпады.  автобус  республика  бағытына қарай  кетті.  сағат  17. 20 шамасында. жүргізушіге  шара  қолдануды  сұрайды.</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
+      <c r="B45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1165,13 +891,7 @@
           <t>№23 маршрут  на остановку Акмолинская областная больница №2 в сторону города подошли в 17:10. Сейчас 17:34, ни одного автобуса не было. Очень часто долго ждем. Примите меры.</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>№23 маршрут  на остановку акмолинская областная больница №2 в сторону города подошли в 17:10. сейчас 17:34, ни одного автобуса не было. очень часто долго ждем. примите меры.</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
+      <c r="B46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1181,13 +901,7 @@
           <t>51 автобус ,аялдама Назарбаев университет бағыт Аэропорт ,уақыт 17:45 ,номер 231 ВА автобуста аялдама атауын жариялайтын құрылғы жоқтығынан Канал Нура -Есил аялдамсын өтіп Пригородный ТА барып түстік, неге қолайсыз жағдайлар туындалуы тиіс</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>51 автобус ,аялдама назарбаев университет бағыт аэропорт ,уақыт 17:45 ,номер 231 ва автобуста аялдама атауын жариялайтын құрылғы жоқтығынан канал нура -есил аялдамсын өтіп пригородный та барып түстік, неге қолайсыз жағдайлар туындалуы тиіс</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
+      <c r="B47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1197,13 +911,7 @@
           <t>МА11. Время примерно 17.40 или 17.50. С остановки ЖК Жайна в направлении 1 городской больницы. Я оплатил проезд, зашел контролер Еркин или Ермек и я у него спросил, где можно пополнить тр. карту. Он разговаривал с водителем. На вопрос мой сказал, что я мешаю ему работать и вызовет полицию и вытащил меня с автобуса. Зашли с ним в 47, он снова начал проверку и с задней двери вышел и скрылся. Оплачивал за проезд с этой карты 1004608004. По какой  причине он так поступил? Я один раз спросил, где можно пополнить карту, так как ехать нужно было дальше. Номер автобуса не помню, посмотрите по времени.</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr"/>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>ма11. время примерно 17.40 или 17.50. с остановки жк жайна в направлении 1 городской больницы. я оплатил проезд, зашел контролер еркин или ермек и я у него спросил, где можно пополнить тр. карту. он разговаривал с водителем. на вопрос мой сказал, что я мешаю ему работать и вызовет полицию и вытащил меня с автобуса. зашли с ним в 47, он снова начал проверку и с задней двери вышел и скрылся. оплачивал за проезд с этой карты 1004608004. по какой  причине он так поступил? я один раз спросил, где можно пополнить карту, так как ехать нужно было дальше. номер автобуса не помню, посмотрите по времени.</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
+      <c r="B48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1213,13 +921,7 @@
           <t>Требую с остановки Назарбаев Университет сделать прямой  рейс   Астана арена и до Школа Зерде  что находиться по Толе би. Детям очень тяжело добираться. Во первых несколько пересадок Сойдут на Астана Арена и еще целый километр пешком идут в школу за Астана Арена .Не раз писала и просила.Нет никаких продвижений.Ребенок уже дважды пневмонией проболел. По снегу и дождю как вы думаете им добираться.Уже слов нет.СТС компания только в ушерб народу меняет движение автобусов.Одну молодежь наберут которые  не входят в положение детей. Решите уже проблему.Или нам  не пускать детей в честь противосстоянию вашему бездействию.Тут ездят  Бетономешалки,грузовые машины.Есть угроза здоровью детям.Я специально подаю заявку .В случае традегии именно с СТС компании мы родители школа Зерде будем спрашивать.Жду обратной связи и принятых мер  .</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>требую с остановки назарбаев университет сделать прямой  рейс   астана арена и до школа зерде  что находиться по толе би. детям очень тяжело добираться. во первых несколько пересадок сойдут на астана арена и еще целый километр пешком идут в школу за астана арена .не раз писала и просила.нет никаких продвижений.ребенок уже дважды пневмонией проболел. по снегу и дождю как вы думаете им добираться.уже слов нет.стс компания только в ушерб народу меняет движение автобусов.одну молодежь наберут которые  не входят в положение детей. решите уже проблему.или нам  не пускать детей в честь противосстоянию вашему бездействию.тут ездят  бетономешалки,грузовые машины.есть угроза здоровью детям.я специально подаю заявку .в случае традегии именно с стс компании мы родители школа зерде будем спрашивать.жду обратной связи и принятых мер  .</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
+      <c r="B49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1229,13 +931,7 @@
           <t>Маршрут № 304, номер Z083, время 18:52 водитель остановился на остановке Онкологический диспансер не доезжая остановки, то есть там стоял автобус и после него он остановился и не открыв двери уехал  в направлении остановки ТД Гульжан.</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>маршрут № 304, номер z083, время 18:52 водитель остановился на остановке онкологический диспансер не доезжая остановки, то есть там стоял автобус и после него он остановился и не открыв двери уехал  в направлении остановки тд гульжан.</t>
-        </is>
-      </c>
-      <c r="D50" t="n">
+      <c r="B50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1245,13 +941,7 @@
           <t>304 автобус ,остановка Онкологический диспансер в сторону пос Жибек жолы ,время 18:55, госномер  233CJ автобус подъехал на остановку ,остановился сзади другого автобуса ,подошел но дверь не открыл и уехал</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr"/>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>304 автобус ,остановка онкологический диспансер в сторону пос жибек жолы ,время 18:55, госномер  233cj автобус подъехал на остановку ,остановился сзади другого автобуса ,подошел но дверь не открыл и уехал</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
+      <c r="B51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1261,13 +951,7 @@
           <t xml:space="preserve"> м/а 42 мемлекеттік нөмір 494 уақыт 19:00 жүргізуші жағалау бағытында Қараменде би Шақалы аялдамасына келді . Жүргізуші есіктің ортасын ашып, 1 жолаушы түсуге шықты . Мен алдыңғы есіктің алдында тұрдым жүргізуші маған есікті ашпады .  Мен есікті қағып алдым жүргізуші бәрібір ашпады ол қатты ашуланып айқайлады .</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr"/>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> м/а 42 мемлекеттік нөмір 494 уақыт 19:00 жүргізуші жағалау бағытында қараменде би шақалы аялдамасына келді . жүргізуші есіктің ортасын ашып, 1 жолаушы түсуге шықты . мен алдыңғы есіктің алдында тұрдым жүргізуші маған есікті ашпады .  мен есікті қағып алдым жүргізуші бәрібір ашпады ол қатты ашуланып айқайлады .</t>
-        </is>
-      </c>
-      <c r="D52" t="n">
+      <c r="B52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1277,13 +961,7 @@
           <t>М/а 10,  мемлектеттік № 495,  сағат 19:49 аялдама ЖД вокзал бағыт Есенберлин көшесі, шығатын кезде жүргузуші артқы есікті ашпады,  сосын стоп кнопкасын бастым ашпады, сосын дауысымды шығарып едім ашпады, ортанғы есікті стоп кнопкасын басқан соң ашты. Неге барлық есікті ашпайды, неге автобустағы жолаушыларды басып ортасына өтуіміз керек. Шара қолдануды сұрайды.</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr"/>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>м/а 10,  мемлектеттік № 495,  сағат 19:49 аялдама жд вокзал бағыт есенберлин көшесі, шығатын кезде жүргузуші артқы есікті ашпады,  сосын стоп кнопкасын бастым ашпады, сосын дауысымды шығарып едім ашпады, ортанғы есікті стоп кнопкасын басқан соң ашты. неге барлық есікті ашпайды, неге автобустағы жолаушыларды басып ортасына өтуіміз керек. шара қолдануды сұрайды.</t>
-        </is>
-      </c>
-      <c r="D53" t="n">
+      <c r="B53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1293,13 +971,7 @@
           <t>МА47. Время 20.35. до 21.15. С остановки ЖК Уют в сторону Ж/М Юго Восток. По какой причине так долго нет автобуса? Накажите всех водителей за несоблюдение интервала. МА 54 4 раза проехал за это время.</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr"/>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>ма47. время 20.35. до 21.15. с остановки жк уют в сторону ж/м юго восток. по какой причине так долго нет автобуса? накажите всех водителей за несоблюдение интервала. ма 54 4 раза проехал за это время.</t>
-        </is>
-      </c>
-      <c r="D54" t="n">
+      <c r="B54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1309,13 +981,7 @@
           <t>40 м/а 784CG01 с ост. Евразийский национальный университет в сторону левого берега в 21-33 маршрут не повернул на ост. Евразийский национальный университет. Маршрут не повернул на ул.Жирентаева а поехал прямо по ул.Кажымукана а следующий маршрут № 40 повернул на ул.Жирентаева. Просим принять меры</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr"/>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>40 м/а 784cg01 с ост. евразийский национальный университет в сторону левого берега в 21-33 маршрут не повернул на ост. евразийский национальный университет. маршрут не повернул на ул.жирентаева а поехал прямо по ул.кажымукана а следующий маршрут № 40 повернул на ул.жирентаева. просим принять меры</t>
-        </is>
-      </c>
-      <c r="D55" t="n">
+      <c r="B55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1325,13 +991,7 @@
           <t>36 м/а Водитель Ибрагимов  грубит , кюар 22000 в направления Кургальжинской трассы ,  по времени 6-15,  жалоба на Водителя(. Не останавливается . сильные морозы не открывает двери .  настояла на жалобе )</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr"/>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>36 м/а водитель ибрагимов  грубит , кюар 22000 в направления кургальжинской трассы ,  по времени 6-15,  жалоба на водителя(. не останавливается . сильные морозы не открывает двери .  настояла на жалобе )</t>
-        </is>
-      </c>
-      <c r="D56" t="n">
+      <c r="B56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1341,13 +1001,7 @@
           <t>Житель просит  наладить работу маршрутного  автобуса  4, в выходные  дни  автобусы мало ходят.</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>житель просит  наладить работу маршрутного  автобуса  4, в выходные  дни  автобусы мало ходят.</t>
-        </is>
-      </c>
-      <c r="D57" t="n">
+      <c r="B57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1357,13 +1011,7 @@
           <t>Маршрут № 4 не было автобуса   с 06:10-07:03 с остановки  проспект Тауелсиздик в направлении остановки  ТЦ Евразия, просит принять меры</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr"/>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>маршрут № 4 не было автобуса   с 06:10-07:03 с остановки  проспект тауелсиздик в направлении остановки  тц евразия, просит принять меры</t>
-        </is>
-      </c>
-      <c r="D58" t="n">
+      <c r="B58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1373,13 +1021,7 @@
           <t>55 а нет на остановке  ул .  Кенесары в направлении НИИТО с 07-50  до 07-09</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr"/>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>55 а нет на остановке  ул .  кенесары в направлении ниито с 07-50  до 07-09</t>
-        </is>
-      </c>
-      <c r="D59" t="n">
+      <c r="B59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1389,13 +1031,7 @@
           <t>48 м/а, нет на остановке 2 ДГБ в направление города с 07-06  до 07-27</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr"/>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>48 м/а, нет на остановке 2 дгб в направление города с 07-06  до 07-27</t>
-        </is>
-      </c>
-      <c r="D60" t="n">
+      <c r="B60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1405,13 +1041,7 @@
           <t>12 м/а кюар 13184,  проехал остановку Сарытогай  в направления Кабанбай батыра по времени 7-45</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>12 м/а кюар 13184,  проехал остановку сарытогай  в направления кабанбай батыра по времени 7-45</t>
-        </is>
-      </c>
-      <c r="D61" t="n">
+      <c r="B61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1421,13 +1051,7 @@
           <t xml:space="preserve"> Водитель маршрута 12, кр  код 13184 объявил  о  том  что  больше  останавливаться не  будет на  остановке  Сарытогай в направление  пр  Кабанбай батыра, время 7.40 утра. Водитель ссылается  на  то  что  нет  знака  остановки. Просит рассмотреть обращение по возврату остановки.</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> водитель маршрута 12, кр  код 13184 объявил  о  том  что  больше  останавливаться не  будет на  остановке  сарытогай в направление  пр  кабанбай батыра, время 7.40 утра. водитель ссылается  на  то  что  нет  знака  остановки. просит рассмотреть обращение по возврату остановки.</t>
-        </is>
-      </c>
-      <c r="D62" t="n">
+      <c r="B62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1437,13 +1061,7 @@
           <t>11 м/а, водитель  подъехал на остановку пр. Аб. хана  притормозил не открыл двери поехал в направление ул. Пушкина, 07-59</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr"/>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>11 м/а, водитель  подъехал на остановку пр. аб. хана  притормозил не открыл двери поехал в направление ул. пушкина, 07-59</t>
-        </is>
-      </c>
-      <c r="D63" t="n">
+      <c r="B63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1453,13 +1071,7 @@
           <t>маршрут автобуса 55 А не было на остановке Акмолинская областная больница №2  в направлении    проспект Тауелсиздик,  время 7.30-8.10</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr"/>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>маршрут автобуса 55 а не было на остановке акмолинская областная больница №2  в направлении    проспект тауелсиздик,  время 7.30-8.10</t>
-        </is>
-      </c>
-      <c r="D64" t="n">
+      <c r="B64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1469,13 +1081,7 @@
           <t>Маршрут №321 кюар 11551 в 06:50 водитель Махамбетов  медленно ехал со скоростью 40-60 км/час с остановки ж/м Мичурино в направлении остановки Акмолинская областная больница №2.</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr"/>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>маршрут №321 кюар 11551 в 06:50 водитель махамбетов  медленно ехал со скоростью 40-60 км/час с остановки ж/м мичурино в направлении остановки акмолинская областная больница №2.</t>
-        </is>
-      </c>
-      <c r="D65" t="n">
+      <c r="B65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1485,13 +1091,7 @@
           <t>73 м/а от Ену в направлении 22 школы гимназии  проехал мимо Гос. номер: 597CQ01 8:12 в районе</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr"/>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>73 м/а от ену в направлении 22 школы гимназии  проехал мимо гос. номер: 597cq01 8:12 в районе</t>
-        </is>
-      </c>
-      <c r="D66" t="n">
+      <c r="B66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1501,13 +1101,7 @@
           <t>маршрут автобуса 18 гос. номер 344 не было на остановке НИИ травматологии и ортопедии  в направлении остановки  Пушкина не было по времени  7.41-8.23  пусть автопарк примет меры маршрут плохо ходит на линии со слов заявителя</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr"/>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>маршрут автобуса 18 гос. номер 344 не было на остановке нии травматологии и ортопедии  в направлении остановки  пушкина не было по времени  7.41-8.23  пусть автопарк примет меры маршрут плохо ходит на линии со слов заявителя</t>
-        </is>
-      </c>
-      <c r="D67" t="n">
+      <c r="B67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1517,13 +1111,7 @@
           <t>м/а-4  неотднакротные случаи выходные  ост. ЖК Махабат в сторону Коктал просим чтобы  по выходные дни автобус проезжал хотябы 07.00  сегодня он проехал 07.30</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr"/>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>м/а-4  неотднакротные случаи выходные  ост. жк махабат в сторону коктал просим чтобы  по выходные дни автобус проезжал хотябы 07.00  сегодня он проехал 07.30</t>
-        </is>
-      </c>
-      <c r="D68" t="n">
+      <c r="B68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1533,13 +1121,7 @@
           <t>Маршрут №51 кюар 14236 в 08:40 с остановки ЖК Аламан в направлении остановки Дом Министерств, водитель был в наушниках, последнюю дверь не открыл я ему кричу он не слышит и мне пришлось подойти в среднюю дверь  и когда выходил ему еще раз крикнули он услышал и открыл последнюю дверь.</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr"/>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>маршрут №51 кюар 14236 в 08:40 с остановки жк аламан в направлении остановки дом министерств, водитель был в наушниках, последнюю дверь не открыл я ему кричу он не слышит и мне пришлось подойти в среднюю дверь  и когда выходил ему еще раз крикнули он услышал и открыл последнюю дверь.</t>
-        </is>
-      </c>
-      <c r="D69" t="n">
+      <c r="B69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1549,13 +1131,7 @@
           <t xml:space="preserve"> Маршрут №14 не было автобуса с 08:30-09:00 с остановки Школа-лицей №53 в направлении остановки Каныша Сатпаева.</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr"/>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> маршрут №14 не было автобуса с 08:30-09:00 с остановки школа-лицей №53 в направлении остановки каныша сатпаева.</t>
-        </is>
-      </c>
-      <c r="D70" t="n">
+      <c r="B70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1565,13 +1141,7 @@
           <t>80 м/а  кюар код 10653 , время 08:57 часов .  Ехал с ост  ЖК Отау по направлению  ул. Бурабай. Жалоба на водителя . Так как , в салоне автобуса не открывался окно .  Окна закрыто специально сделано , чтобы не открывали.  Прошу принять меры , при не принятии мер,  буду жаловаться  снова.</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr"/>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>80 м/а  кюар код 10653 , время 08:57 часов .  ехал с ост  жк отау по направлению  ул. бурабай. жалоба на водителя . так как , в салоне автобуса не открывался окно .  окна закрыто специально сделано , чтобы не открывали.  прошу принять меры , при не принятии мер,  буду жаловаться  снова.</t>
-        </is>
-      </c>
-      <c r="D71" t="n">
+      <c r="B71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1581,13 +1151,7 @@
           <t>18 маршрут _x000D_ Мемлекет саны:_x000D_ 272BO01_x000D_ уақыты 9/48_x000D_ жүргізуші аялдамадан өтіп кетті Қазақстан Республикасы Ішкі істер министрлігінің орталық ауруханасы Назарбаев университетінің аялдамасы бағытында тоқтамады</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr"/>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>18 маршрут _x000d_ мемлекет саны:_x000d_ 272bo01_x000d_ уақыты 9/48_x000d_ жүргізуші аялдамадан өтіп кетті қазақстан республикасы ішкі істер министрлігінің орталық ауруханасы назарбаев университетінің аялдамасы бағытында тоқтамады</t>
-        </is>
-      </c>
-      <c r="D72" t="n">
+      <c r="B72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1597,13 +1161,7 @@
           <t>47 м/а 9:12-9:52  автобус болмады Казахская национальная академия хореографии  аялдамасынан ЖК Экспо-Плаза</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr"/>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>47 м/а 9:12-9:52  автобус болмады казахская национальная академия хореографии  аялдамасынан жк экспо-плаза</t>
-        </is>
-      </c>
-      <c r="D73" t="n">
+      <c r="B73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1613,13 +1171,7 @@
           <t>41м / а желіде болған жоқ, уақыты 09; 40 сағаттан 10:22 сағатқа дейін. Сарайшық ТК аялдамасы бағыты бойынша Орда базар аялдамасынан. Маршрутты ұзақ күту.</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr"/>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>41м / а желіде болған жоқ, уақыты 09; 40 сағаттан 10:22 сағатқа дейін. сарайшық тк аялдамасы бағыты бойынша орда базар аялдамасынан. маршрутты ұзақ күту.</t>
-        </is>
-      </c>
-      <c r="D74" t="n">
+      <c r="B74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1629,13 +1181,7 @@
           <t>Доброе утро! По поводу мойки  автобусов Очень плохо моют в салоне  автобусы  25 маршрута  после смены . Не добросовестные  работники  на мойке работают. Кто нибудь проверяет салон автобуса после уборки? Утром, на первом круге , только полы чистые. А спинки сидений , печки  никто не вытирает. В частности , сегодня автобус  гос номер 892 время 7-25  остановка 15 лицей в направлении теплотранзит спинки сидений грязные. Обращение касается именно мойки, которая обслуживает 25 маршрут. Проверяйте автобусы после уборки!!!  Кол-во файлов: 2</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr"/>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>доброе утро! по поводу мойки  автобусов очень плохо моют в салоне  автобусы  25 маршрута  после смены . не добросовестные  работники  на мойке работают. кто нибудь проверяет салон автобуса после уборки? утром, на первом круге , только полы чистые. а спинки сидений , печки  никто не вытирает. в частности , сегодня автобус  гос номер 892 время 7-25  остановка 15 лицей в направлении теплотранзит спинки сидений грязные. обращение касается именно мойки, которая обслуживает 25 маршрут. проверяйте автобусы после уборки!!!  кол-во файлов: 2</t>
-        </is>
-      </c>
-      <c r="D75" t="n">
+      <c r="B75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1645,13 +1191,7 @@
           <t>Маршрут № 41 не было автобуса с 09:55 - 10:30 с остановки Автобусный парк № 3 в направлении остановки Жансугурова.</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr"/>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>маршрут № 41 не было автобуса с 09:55 - 10:30 с остановки автобусный парк № 3 в направлении остановки жансугурова.</t>
-        </is>
-      </c>
-      <c r="D76" t="n">
+      <c r="B76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1661,13 +1201,7 @@
           <t>41  м/а не было на линии время с  09:40 часов до 10:33 часов . С остановки  Рынок  Кок по направлению ост  пр Жумабаева . Долгое ожидание маршрута .</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr"/>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>41  м/а не было на линии время с  09:40 часов до 10:33 часов . с остановки  рынок  кок по направлению ост  пр жумабаева . долгое ожидание маршрута .</t>
-        </is>
-      </c>
-      <c r="D77" t="n">
+      <c r="B77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1677,13 +1211,7 @@
           <t xml:space="preserve"> 4 маршрут  кюар 11032. Остановка Наурыз в сторону  школа лицей 15,Время 07:30-07:55.Хочу выразить благодарность водителю этого маршрута за его чуткое отношение к пассажирам.внимательность. Входит в положение пассажиров.Ждет бегущего пассажира.Спокойный и терпиливый.Спасибо за его труд и терпение к пассажирам.</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr"/>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4 маршрут  кюар 11032. остановка наурыз в сторону  школа лицей 15,время 07:30-07:55.хочу выразить благодарность водителю этого маршрута за его чуткое отношение к пассажирам.внимательность. входит в положение пассажиров.ждет бегущего пассажира.спокойный и терпиливый.спасибо за его труд и терпение к пассажирам.</t>
-        </is>
-      </c>
-      <c r="D78" t="n">
+      <c r="B78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1693,13 +1221,7 @@
           <t>автобус №62  QR  10902 в 10:54 с остановки  Ақтамберді жырау в направлений Кошкарбаева в автобусе информатор остановок не работает, не объявляют остановки.</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr"/>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>автобус №62  qr  10902 в 10:54 с остановки  ақтамберді жырау в направлений кошкарбаева в автобусе информатор остановок не работает, не объявляют остановки.</t>
-        </is>
-      </c>
-      <c r="D79" t="n">
+      <c r="B79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1709,13 +1231,7 @@
           <t>М/а 54,  аялдама Жумбақтас бағыт Н. Тлендиева данғылы қалаға қарай, күту уақыты  10:40-11:04</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr"/>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>м/а 54,  аялдама жумбақтас бағыт н. тлендиева данғылы қалаға қарай, күту уақыты  10:40-11:04</t>
-        </is>
-      </c>
-      <c r="D80" t="n">
+      <c r="B80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1725,13 +1241,7 @@
           <t>4 м/а  Гос. номер: 891CE01 проспект Тлендиева в направлении Жаннур  и за этот путь 5 контролеров сели ! Фамилия на Н. начинается , не дала прочитать фамилию! за 10 остановок 5 проверяющих! Что это такое? У них такая несогласованная работа и система! фамилия на Н  начинается , огрызается лет 35" Перед пасссажирами не могла ответить почему так часто контролеры и начала мне грубить , я просто спросил!  С</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr"/>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>4 м/а  гос. номер: 891ce01 проспект тлендиева в направлении жаннур  и за этот путь 5 контролеров сели ! фамилия на н. начинается , не дала прочитать фамилию! за 10 остановок 5 проверяющих! что это такое? у них такая несогласованная работа и система! фамилия на н  начинается , огрызается лет 35" перед пасссажирами не могла ответить почему так часто контролеры и начала мне грубить , я просто спросил!  с</t>
-        </is>
-      </c>
-      <c r="D81" t="n">
+      <c r="B81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1741,13 +1251,7 @@
           <t>No33 маршрут Агрогородок аялдамасынан Астана базары аялдамасы бағытында 10.30-11.12 автобусы болмады.,күні 01.02.2025 ж</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr"/>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>no33 маршрут агрогородок аялдамасынан астана базары аялдамасы бағытында 10.30-11.12 автобусы болмады.,күні 01.02.2025 ж</t>
-        </is>
-      </c>
-      <c r="D82" t="n">
+      <c r="B82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1757,13 +1261,7 @@
           <t>49 м/а Я пришла на остановку Переулок Келешек, в 10:45 Стою в направлении остановки Казахский университет технологии и бизнеса. Сейчас время 11:17. автобуса до сих пор нет.</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr"/>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>49 м/а я пришла на остановку переулок келешек, в 10:45 стою в направлении остановки казахский университет технологии и бизнеса. сейчас время 11:17. автобуса до сих пор нет.</t>
-        </is>
-      </c>
-      <c r="D83" t="n">
+      <c r="B83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1773,13 +1271,7 @@
           <t>М/а 10, аялдама Астана Медициналық университет бағыт Д. Қонаев сол жақ жағалау, күту уақыты 10:47-11:17</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr"/>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>м/а 10, аялдама астана медициналық университет бағыт д. қонаев сол жақ жағалау, күту уақыты 10:47-11:17</t>
-        </is>
-      </c>
-      <c r="D84" t="n">
+      <c r="B84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1789,13 +1281,7 @@
           <t>Салеметсиз Осы неге 63 автобус нашар журеді Выходные вообще плохо ходят Линияда 9 гана автобус</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr"/>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>салеметсиз осы неге 63 автобус нашар журеді выходные вообще плохо ходят линияда 9 гана автобус</t>
-        </is>
-      </c>
-      <c r="D85" t="n">
+      <c r="B85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1805,13 +1291,7 @@
           <t>маршрут автобуса №26 киаркод 17386 в автобусе не работает средний валидатор, водитель не в курсе, народу очень много невозможно пройти к другому валидатору,  примите меры</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr"/>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>маршрут автобуса №26 киаркод 17386 в автобусе не работает средний валидатор, водитель не в курсе, народу очень много невозможно пройти к другому валидатору,  примите меры</t>
-        </is>
-      </c>
-      <c r="D86" t="n">
+      <c r="B86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1821,13 +1301,7 @@
           <t xml:space="preserve"> Маршрут авт №11  гос №469 на остановке  школа 12 не остановился на посадку и высадку,даже не притормозил,мы сидели в теплой остановке ,увидев ,что подъезжает,собирались выйти на посадку,направление  тд Гульжан в 11 час 50 мин</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr"/>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> маршрут авт №11  гос №469 на остановке  школа 12 не остановился на посадку и высадку,даже не притормозил,мы сидели в теплой остановке ,увидев ,что подъезжает,собирались выйти на посадку,направление  тд гульжан в 11 час 50 мин</t>
-        </is>
-      </c>
-      <c r="D87" t="n">
+      <c r="B87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1837,13 +1311,7 @@
           <t>62 маршрут _x000D_ Гос. номер:_x000D_ 953BW01_x000D_ время 12/06_x000D_ остановка Домалак ана в направление _x000D_ Акмешит, автобус проехал без остановки</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr"/>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>62 маршрут _x000d_ гос. номер:_x000d_ 953bw01_x000d_ время 12/06_x000d_ остановка домалак ана в направление _x000d_ акмешит, автобус проехал без остановки</t>
-        </is>
-      </c>
-      <c r="D88" t="n">
+      <c r="B88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1853,13 +1321,7 @@
           <t>63 маршрут Останорвка Бином в сторону  Кулагер. Время 12:00-12:23 нет автобуса.Нет автобуса</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr"/>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>63 маршрут останорвка бином в сторону  кулагер. время 12:00-12:23 нет автобуса.нет автобуса</t>
-        </is>
-      </c>
-      <c r="D89" t="n">
+      <c r="B89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1869,13 +1331,7 @@
           <t>Маршрут 53, 16477, время 11.03. остановка "ABYROY направление левого берега. Контролер Мырзанов Б.Д. Стоял на передней части где не открывается дверь маршрута , я ехал 15 минут я не кому не мешал. Начел придираться ко мне хотя от водителя не было замечания. После долгих разговоров он пугал меня что оштрафует. После водитель попросил пройти в салон середину и я прошел. Хотя сам контролер стал на мое место и стоял. И это не первый раз , очень грубый . Угрожает штрафами за что ответь не может.</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr"/>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>маршрут 53, 16477, время 11.03. остановка "abyroy направление левого берега. контролер мырзанов б.д. стоял на передней части где не открывается дверь маршрута , я ехал 15 минут я не кому не мешал. начел придираться ко мне хотя от водителя не было замечания. после долгих разговоров он пугал меня что оштрафует. после водитель попросил пройти в салон середину и я прошел. хотя сам контролер стал на мое место и стоял. и это не первый раз , очень грубый . угрожает штрафами за что ответь не может.</t>
-        </is>
-      </c>
-      <c r="D90" t="n">
+      <c r="B90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1885,13 +1341,7 @@
           <t>маршрут № 326 не было автобуса с 9.45-10.50 с остановки Акан Серы в направлении остановки  69-я улица Талапкер с. , ни в 10.00 ни в 10.30 автобуса не было , дата 01.02.2025г</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr"/>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>маршрут № 326 не было автобуса с 9.45-10.50 с остановки акан серы в направлении остановки  69-я улица талапкер с. , ни в 10.00 ни в 10.30 автобуса не было , дата 01.02.2025г</t>
-        </is>
-      </c>
-      <c r="D91" t="n">
+      <c r="B91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1901,13 +1351,7 @@
           <t xml:space="preserve"> маршр авт №52 Керея и Жанибека  аялдамада, мен 11 сағат 30 минуттан 12 сағат 30 минутқа дейін күттім бағыты ескі қала</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr"/>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> маршр авт №52 керея и жанибека  аялдамада, мен 11 сағат 30 минуттан 12 сағат 30 минутқа дейін күттім бағыты ескі қала</t>
-        </is>
-      </c>
-      <c r="D92" t="n">
+      <c r="B92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1917,13 +1361,7 @@
           <t>326,306 11:30-12:49 автобус жоқ Акан Серы  аялдамасынан  ост. Талапкер бағытында</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr"/>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>326,306 11:30-12:49 автобус жоқ акан серы  аялдамасынан  ост. талапкер бағытында</t>
-        </is>
-      </c>
-      <c r="D93" t="n">
+      <c r="B93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1933,13 +1371,7 @@
           <t>56 м/а  гос номер  623 . Стояла на ост  ул Е-16 по направлению ост  Дом Министерства.  Я бежала , водитель , не дождавшейся меня уехал , на улице холодно. Прошу сделать замечание водителю, чтоб вред , не уезжал , а ждал пассажиров.</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr"/>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>56 м/а  гос номер  623 . стояла на ост  ул е-16 по направлению ост  дом министерства.  я бежала , водитель , не дождавшейся меня уехал , на улице холодно. прошу сделать замечание водителю, чтоб вред , не уезжал , а ждал пассажиров.</t>
-        </is>
-      </c>
-      <c r="D94" t="n">
+      <c r="B94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1949,13 +1381,7 @@
           <t>Работает  только 4,5 касса. 1,2 касса  кассиры просто так ходят,не обслуживают население.Примите меры.И так постоянно.</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr"/>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>работает  только 4,5 касса. 1,2 касса  кассиры просто так ходят,не обслуживают население.примите меры.и так постоянно.</t>
-        </is>
-      </c>
-      <c r="D95" t="n">
+      <c r="B95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1965,13 +1391,7 @@
           <t>№3 м\а, мемлекеттік номері 914CU01, Нұрлы-жол вокзалы аялдамасынан, қала бағытына қарай, 14:00 уақытымен, аялдамаға тоқтамай өтіп кетті.</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr"/>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>№3 м\а, мемлекеттік номері 914cu01, нұрлы-жол вокзалы аялдамасынан, қала бағытына қарай, 14:00 уақытымен, аялдамаға тоқтамай өтіп кетті.</t>
-        </is>
-      </c>
-      <c r="D96" t="n">
+      <c r="B96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1981,13 +1401,7 @@
           <t>автобус №43 не был на остановке ЖК Денсаулык Бакыт  в направлений ЖК Турсын-Астана 1 с 13:35-14:05</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr"/>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>автобус №43 не был на остановке жк денсаулык бакыт  в направлений жк турсын-астана 1 с 13:35-14:05</t>
-        </is>
-      </c>
-      <c r="D97" t="n">
+      <c r="B97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1997,13 +1411,7 @@
           <t>37 м / а Алау Мұз сарайы аялдамасына келдім, сағат 13:17-де Маған кардиохирургиялық клиника бағытына бару керек болды. Автобус сағат 13:22-де жүрді. Мен аялдамада тұрдым, боранның салдарынан мен жан жағыма бұрылып қарап тұрдым, бораннан қорғанып, және бір-бірінен кейін келген 2 автобусты көрмедім. Менің автобусым екенін көргеннен кейін. Автобуска қол бұлғадым, ол маған қарап, өтіп кетті. Осыдан кейін маған 40 минуттай күтуге тура келді. Баламен бірге тұрдым аялдамада. Қазір сол автобустың артынан келе жатырмын. Мен басқа автобусқа отырдым. Қазір №37 автобус, мемлекеттік номері №623 бара жатырмын. Біз қатты қатып қалдық баламыз екуміз, бүйрегім қатты ауырады, баланың аяғы қатып қалды. Қайта қоңырау шалып, жауап беруіңізді сұраймын. Осы мәселе бойынша шаралар қабылдауды талап етемін.</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr"/>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>37 м / а алау мұз сарайы аялдамасына келдім, сағат 13:17-де маған кардиохирургиялық клиника бағытына бару керек болды. автобус сағат 13:22-де жүрді. мен аялдамада тұрдым, боранның салдарынан мен жан жағыма бұрылып қарап тұрдым, бораннан қорғанып, және бір-бірінен кейін келген 2 автобусты көрмедім. менің автобусым екенін көргеннен кейін. автобуска қол бұлғадым, ол маған қарап, өтіп кетті. осыдан кейін маған 40 минуттай күтуге тура келді. баламен бірге тұрдым аялдамада. қазір сол автобустың артынан келе жатырмын. мен басқа автобусқа отырдым. қазір №37 автобус, мемлекеттік номері №623 бара жатырмын. біз қатты қатып қалдық баламыз екуміз, бүйрегім қатты ауырады, баланың аяғы қатып қалды. қайта қоңырау шалып, жауап беруіңізді сұраймын. осы мәселе бойынша шаралар қабылдауды талап етемін.</t>
-        </is>
-      </c>
-      <c r="D98" t="n">
+      <c r="B98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2013,13 +1421,7 @@
           <t>№ 1014439580 көлік картасы бойынша 01.09.2024ж көлік әмиянын 3 айлық жүру тарифына 20 мың баланс толтырған. Қателесіп 01.11.2024 ж тағы да 20 мың 3 айлық жол жүру тарифын салған.   01.12 күні Орталық кассаға  барып өтініш жасаған. Өтініші бойынша осы айда 01.02.2025 ж әлі де қолдану мүмкіндігі болу керек. Тариф неге қолданылмай тұр?</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr"/>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>№ 1014439580 көлік картасы бойынша 01.09.2024ж көлік әмиянын 3 айлық жүру тарифына 20 мың баланс толтырған. қателесіп 01.11.2024 ж тағы да 20 мың 3 айлық жол жүру тарифын салған.   01.12 күні орталық кассаға  барып өтініш жасаған. өтініші бойынша осы айда 01.02.2025 ж әлі де қолдану мүмкіндігі болу керек. тариф неге қолданылмай тұр?</t>
-        </is>
-      </c>
-      <c r="D99" t="n">
+      <c r="B99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2029,13 +1431,7 @@
           <t>84 м/а Гос номер 379 Я стояла на остановке Улы дала  на пересини Проспект Улы Дала и Проспекта Туран. Подошла в 14:00 Мне надо было поехать в направлении остановки Городская детская инфекционная больница. Автобус приехал в 14:15-14:16 Водитель остановился не на остановке, а на второстепенной улице. Мы все стояли на остановке. Я это увидела, оббежала автобус. В это время он перед моим носом закрыл двери и уехал. Я подошла к автобусу вместе с ребенком. Я успела постучать дверь, но он все равно не открыл двери, посигналил и уехал. Прошу принять меры по данному поводу. Пусть проведут какую-нибудь работу. Я осталась с ребёнком на улице. На улице очень холодно.</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr"/>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>84 м/а гос номер 379 я стояла на остановке улы дала  на пересини проспект улы дала и проспекта туран. подошла в 14:00 мне надо было поехать в направлении остановки городская детская инфекционная больница. автобус приехал в 14:15-14:16 водитель остановился не на остановке, а на второстепенной улице. мы все стояли на остановке. я это увидела, оббежала автобус. в это время он перед моим носом закрыл двери и уехал. я подошла к автобусу вместе с ребенком. я успела постучать дверь, но он все равно не открыл двери, посигналил и уехал. прошу принять меры по данному поводу. пусть проведут какую-нибудь работу. я осталась с ребёнком на улице. на улице очень холодно.</t>
-        </is>
-      </c>
-      <c r="D100" t="n">
+      <c r="B100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2045,13 +1441,7 @@
           <t>На маршрутном автобусе 22А, рег.номер 580ВМ, сзади не обозначен указатель маршрута. Это выяснилось на остановке " Астанатехнопарк", по проспекту Республики, к направлению проспекта Богенбай Батыра 01.02.25 г, в 14.15 мин.</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr"/>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>на маршрутном автобусе 22а, рег.номер 580вм, сзади не обозначен указатель маршрута. это выяснилось на остановке " астанатехнопарк", по проспекту республики, к направлению проспекта богенбай батыра 01.02.25 г, в 14.15 мин.</t>
-        </is>
-      </c>
-      <c r="D101" t="n">
+      <c r="B101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2061,13 +1451,7 @@
           <t>42 м/а 479 гос номер Памир аялдамасынан  ЖК Алтын Шар бағытындаа  есікті ашты да ,резко жацып тастады ,кішкенатй бала кіріп үлгермеді ! недеген сұмдық</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr"/>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>42 м/а 479 гос номер памир аялдамасынан  жк алтын шар бағытындаа  есікті ашты да ,резко жацып тастады ,кішкенатй бала кіріп үлгермеді ! недеген сұмдық</t>
-        </is>
-      </c>
-      <c r="D102" t="n">
+      <c r="B102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2077,13 +1461,7 @@
           <t>_x000D_ Авт № 36 мемлекеттік № 879   14 сағат 22 минутта, мен  теміржол вокзалына-1 жеттім, мен құлаққап кидім, бір күн жұмыс істедім және ұйықтап кеттім, тікелей аялдамада  ояндым, бірінші есіктен шыққым келді, жүргізуші дөрекі айтты : екінші есікке шығыңыз, неге отырасыз, бәрі шығады.Бозарал аялдамасында отырдым.Дөрекілікке шағым</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr"/>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>_x000d_ авт № 36 мемлекеттік № 879   14 сағат 22 минутта, мен  теміржол вокзалына-1 жеттім, мен құлаққап кидім, бір күн жұмыс істедім және ұйықтап кеттім, тікелей аялдамада  ояндым, бірінші есіктен шыққым келді, жүргізуші дөрекі айтты : екінші есікке шығыңыз, неге отырасыз, бәрі шығады.бозарал аялдамасында отырдым.дөрекілікке шағым</t>
-        </is>
-      </c>
-      <c r="D103" t="n">
+      <c r="B103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2093,13 +1471,7 @@
           <t>Жалоба. М/а 1, гос. № 492 CQ01, в 14:41  с ост. пункта м/он Самал направление гостиница Жасыбай,  при  высадке пассажир начал движение, водитель не смотрел в зеркала так как разговаривал по телефону через беспроводной блютуз.  Пассажир спускается, а автобус поехал заявитель чуть не упала еле удержалась. Примите меры в отношение водителя.</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr"/>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>жалоба. м/а 1, гос. № 492 cq01, в 14:41  с ост. пункта м/он самал направление гостиница жасыбай,  при  высадке пассажир начал движение, водитель не смотрел в зеркала так как разговаривал по телефону через беспроводной блютуз.  пассажир спускается, а автобус поехал заявитель чуть не упала еле удержалась. примите меры в отношение водителя.</t>
-        </is>
-      </c>
-      <c r="D104" t="n">
+      <c r="B104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2109,13 +1481,7 @@
           <t>№30 м\а, гос.номер 572BM01, на остановке улица Акжол не открыл двери для выхода с маршрута, в направлении лесозавод Сусамыр, время 14:40, он притормозил на остановке улица Акжол. Мы хотели выйти и ожидали пока он откроет двери. Но водитель маршрута не открыл двери и уехал. Водитель открыл двери на следущей остановке.</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr"/>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>№30 м\а, гос.номер 572bm01, на остановке улица акжол не открыл двери для выхода с маршрута, в направлении лесозавод сусамыр, время 14:40, он притормозил на остановке улица акжол. мы хотели выйти и ожидали пока он откроет двери. но водитель маршрута не открыл двери и уехал. водитель открыл двери на следущей остановке.</t>
-        </is>
-      </c>
-      <c r="D105" t="n">
+      <c r="B105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2125,13 +1491,7 @@
           <t>М/а 44, гос.№ 504, конкретно не запомнила номер в 15:08 на ост. пункт ЖК Кулагер направление шоссе коргалжын, пассажир подошла к автобусу с ребенком стучала в двери крайние автобус не открыл дверь и уехал.</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr"/>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>м/а 44, гос.№ 504, конкретно не запомнила номер в 15:08 на ост. пункт жк кулагер направление шоссе коргалжын, пассажир подошла к автобусу с ребенком стучала в двери крайние автобус не открыл дверь и уехал.</t>
-        </is>
-      </c>
-      <c r="D106" t="n">
+      <c r="B106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2141,13 +1501,7 @@
           <t>маршрут автобуса №52  нету на остановки Керея и Жанибека в направлении остановки ТЦ Тулпар с 14.45-15.15</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr"/>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>маршрут автобуса №52  нету на остановки керея и жанибека в направлении остановки тц тулпар с 14.45-15.15</t>
-        </is>
-      </c>
-      <c r="D107" t="n">
+      <c r="B107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2157,13 +1511,7 @@
           <t>МА 22 не было автобуса с 14:45 - 15:20 остановка ТД Гульжан в направлении остановки ж/м Железнодорожный.</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr"/>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>ма 22 не было автобуса с 14:45 - 15:20 остановка тд гульжан в направлении остановки ж/м железнодорожный.</t>
-        </is>
-      </c>
-      <c r="D108" t="n">
+      <c r="B108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2173,13 +1521,7 @@
           <t>_x000D_ 50-маршрут_x000D_ мемлекеттік нөмірі 110AT01_x000D_ уақыты 15/02_x000D_ «Бал Бала» балабақшасының аялдамасында «Көктал» саябағы бағытында жүргізуші баламен бірге жолаушының шығуын күтпестен есікті жауып, кенет қозғалған.</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr"/>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>_x000d_ 50-маршрут_x000d_ мемлекеттік нөмірі 110at01_x000d_ уақыты 15/02_x000d_ «бал бала» балабақшасының аялдамасында «көктал» саябағы бағытында жүргізуші баламен бірге жолаушының шығуын күтпестен есікті жауып, кенет қозғалған.</t>
-        </is>
-      </c>
-      <c r="D109" t="n">
+      <c r="B109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2189,13 +1531,7 @@
           <t>49 маршрут Остановка Алмалык в сторону  Бал бала. Время 15:00-15:30,Нет автобуса.</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr"/>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>49 маршрут остановка алмалык в сторону  бал бала. время 15:00-15:30,нет автобуса.</t>
-        </is>
-      </c>
-      <c r="D110" t="n">
+      <c r="B110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2205,13 +1541,7 @@
           <t>36 маршрут _x000D_ код оплаты 22000_x000D_ время 6/10_x000D_ на остановке Ж/д вокзал Астана 1 в направлении проспект Сарыарка_x000D_ Со стороны водителя не было нарушений, приехал вовремя и подъехал к остановке как подложено не конфликтовал ни с кем, порой пассажиры оставляют жалобы не обоснована, просим принять во внимание, потому что утром пассажир в салоне автобуса сама начала повышать тон на водителя. _x000D_</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr"/>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>36 маршрут _x000d_ код оплаты 22000_x000d_ время 6/10_x000d_ на остановке ж/д вокзал астана 1 в направлении проспект сарыарка_x000d_ со стороны водителя не было нарушений, приехал вовремя и подъехал к остановке как подложено не конфликтовал ни с кем, порой пассажиры оставляют жалобы не обоснована, просим принять во внимание, потому что утром пассажир в салоне автобуса сама начала повышать тон на водителя. _x000d_</t>
-        </is>
-      </c>
-      <c r="D111" t="n">
+      <c r="B111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2221,13 +1551,7 @@
           <t>№55Б бағдар, мем/нөмір 501,  сағат 15-36 кеткенде  Кенесары аялдамасыңа тоқтамай Қабанбай батыр бағытыңа қарай кетіп қалды .</t>
         </is>
       </c>
-      <c r="B112" t="inlineStr"/>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>№55б бағдар, мем/нөмір 501,  сағат 15-36 кеткенде  кенесары аялдамасыңа тоқтамай қабанбай батыр бағытыңа қарай кетіп қалды .</t>
-        </is>
-      </c>
-      <c r="D112" t="n">
+      <c r="B112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2237,13 +1561,7 @@
           <t>1012307276 3 айлық тариф алдым , бірінші  касссадан  карта алдым ,3 айлық тариф сол жерде салдым , 26.10 сосын айтты қай уақытта ыңғайлы сол уақытта сала беріңіз деді! Бірақ осы қаңтардың 13-і толтырылған 3 айлық абонементім тек қана март айына дейін жарамды ! Неге маған айтпады 15-нен кейін толтырып отыру керектігін ?  1 айға екі рет төлеп тұрмын. Сұрағанда да қызметкерлер жауап бермеді!</t>
         </is>
       </c>
-      <c r="B113" t="inlineStr"/>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>1012307276 3 айлық тариф алдым , бірінші  касссадан  карта алдым ,3 айлық тариф сол жерде салдым , 26.10 сосын айтты қай уақытта ыңғайлы сол уақытта сала беріңіз деді! бірақ осы қаңтардың 13-і толтырылған 3 айлық абонементім тек қана март айына дейін жарамды ! неге маған айтпады 15-нен кейін толтырып отыру керектігін ?  1 айға екі рет төлеп тұрмын. сұрағанда да қызметкерлер жауап бермеді!</t>
-        </is>
-      </c>
-      <c r="D113" t="n">
+      <c r="B113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2253,13 +1571,7 @@
           <t>3 маршрут гаражный   А 695.Остановка  Школа 22 в строну  Жастар. Время 16:01 час. Стоял 3 секунды.Мы вышли с теплой  остановки, ,он производил посадку ,но  не подождал ,уехал.</t>
         </is>
       </c>
-      <c r="B114" t="inlineStr"/>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>3 маршрут гаражный   а 695.остановка  школа 22 в строну  жастар. время 16:01 час. стоял 3 секунды.мы вышли с теплой  остановки, ,он производил посадку ,но  не подождал ,уехал.</t>
-        </is>
-      </c>
-      <c r="D114" t="n">
+      <c r="B114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2269,13 +1581,7 @@
           <t>30.01 күні сағ. 18.30 болған оқиға. Сарайшық көшесінде 18 маршрут дәл светофор алдына пробка жасап тұрып аллы, жасыл жанғанда өте алмай қиналдық, сол арада қызыл жанып аотында машина тез жүріп ұлымды қағып кете жаздады, шок тан енді есімді жиып отырмын. Неге водительдер пешеход жолына тұрып алады? Қашан тоқтайды жол ережесін бұзу? Солардығ кесірінен адамдарға зиян тиюде. Барлық водительдерге ҚАТАЛ ЕСКЕРТУ ЖАСАҢЫЗДАР!!! @ikomek109 Автобустың qr кодын кайдан білем мен? Ішіне кірген жоқпынғой, светофор алдында тұрдым касымда бала, жан жақта машина номердіде көре алмайсың. Министерстводан келе жатыр Қабанбай батыр көшесі бағытына қарай. Жалпы барлық жүргізушіге ескерту жасалу керек “ Тұрмасын пешоход жолына, пробка болып асығып тұрсада”!!! Бұл адам өмірі!!! Олар асықты екен деп жолдан өте алмау керекпізбе, недеген қателік.</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr"/>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>30.01 күні сағ. 18.30 болған оқиға. сарайшық көшесінде 18 маршрут дәл светофор алдына пробка жасап тұрып аллы, жасыл жанғанда өте алмай қиналдық, сол арада қызыл жанып аотында машина тез жүріп ұлымды қағып кете жаздады, шок тан енді есімді жиып отырмын. неге водительдер пешеход жолына тұрып алады? қашан тоқтайды жол ережесін бұзу? солардығ кесірінен адамдарға зиян тиюде. барлық водительдерге қатал ескерту жасаңыздар!!! @ikomek109 автобустың qr кодын кайдан білем мен? ішіне кірген жоқпынғой, светофор алдында тұрдым касымда бала, жан жақта машина номердіде көре алмайсың. министерстводан келе жатыр қабанбай батыр көшесі бағытына қарай. жалпы барлық жүргізушіге ескерту жасалу керек “ тұрмасын пешоход жолына, пробка болып асығып тұрсада”!!! бұл адам өмірі!!! олар асықты екен деп жолдан өте алмау керекпізбе, недеген қателік.</t>
-        </is>
-      </c>
-      <c r="D115" t="n">
+      <c r="B115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2285,13 +1591,7 @@
           <t>м/а-14 г/н-574 на меленьких улицах  ездит с большой скорость не доезжая на ул. Сатпаева  нарушает ПДД я подошел к водителю и сказал что он нарушает выехал на встречную полосу, водитель на меня посмотрел и ехидно засмеялся. Что за безобразие прошу провести беседу с водителем  время  16.40 Сатпаева -26 в сторону Момышулы ехал._x000D_</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr"/>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>м/а-14 г/н-574 на меленьких улицах  ездит с большой скорость не доезжая на ул. сатпаева  нарушает пдд я подошел к водителю и сказал что он нарушает выехал на встречную полосу, водитель на меня посмотрел и ехидно засмеялся. что за безобразие прошу провести беседу с водителем  время  16.40 сатпаева -26 в сторону момышулы ехал._x000d_</t>
-        </is>
-      </c>
-      <c r="D116" t="n">
+      <c r="B116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2301,13 +1601,7 @@
           <t>№61 маршрут бойынша сағат 16.00-16.57 аралығында Шыңғыс Айтматов аялдамасынан Сауран аялдамасы бағытында автобус болған жоқ, 01.02.2025 ж.</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr"/>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>№61 маршрут бойынша сағат 16.00-16.57 аралығында шыңғыс айтматов аялдамасынан сауран аялдамасы бағытында автобус болған жоқ, 01.02.2025 ж.</t>
-        </is>
-      </c>
-      <c r="D117" t="n">
+      <c r="B117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2317,13 +1611,7 @@
           <t>М/а 49, 18418,  с ост. пункта Бал бала направление ЖК Рио, только зашли с ребенком в автобусе скользко не успели сесть и контролер фамилия Кокебай начала кричать платите быстрее торопила салон автобуса свободный, пассажир сказала сейчас сяду и оплачу, контролер с гонором в голосе требовала оплатить. Примите меры в отношение контролера проведите разъяснительную работу чтобы соблюдали культуру и вежливость в отношение пассажиров.</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr"/>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>м/а 49, 18418,  с ост. пункта бал бала направление жк рио, только зашли с ребенком в автобусе скользко не успели сесть и контролер фамилия кокебай начала кричать платите быстрее торопила салон автобуса свободный, пассажир сказала сейчас сяду и оплачу, контролер с гонором в голосе требовала оплатить. примите меры в отношение контролера проведите разъяснительную работу чтобы соблюдали культуру и вежливость в отношение пассажиров.</t>
-        </is>
-      </c>
-      <c r="D118" t="n">
+      <c r="B118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2333,13 +1621,7 @@
           <t>марш №60 на остановке ЖК Jetisu.Lepsi ПОДБЕЖАЛ   к двери в середине автобуса, водитель закрыл  передо мной и уехал направление Мангилик Ел в 17 час 02</t>
         </is>
       </c>
-      <c r="B119" t="inlineStr"/>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>марш №60 на остановке жк jetisu.lepsi подбежал   к двери в середине автобуса, водитель закрыл  передо мной и уехал направление мангилик ел в 17 час 02</t>
-        </is>
-      </c>
-      <c r="D119" t="n">
+      <c r="B119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2349,13 +1631,7 @@
           <t>М/а 71,  кьюар код 10827, в 17:07  фамилия водителя Нурсолтанов Б.К, м-он Отау направление пр. Р. Кошкарбаева, подходя к автобусу водитель резко закрыл автобус чуть не зажав дверьми, затем открыл дверь,  войдя автобус водитель начал ругаться, разговаривал на ты грубил сказал смотри по сторонам, на следующем остановочном пункте не открыл двери требовал показать оплату, очень грубое отношение к пассажирам. Примите меры.</t>
         </is>
       </c>
-      <c r="B120" t="inlineStr"/>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>м/а 71,  кьюар код 10827, в 17:07  фамилия водителя нурсолтанов б.к, м-он отау направление пр. р. кошкарбаева, подходя к автобусу водитель резко закрыл автобус чуть не зажав дверьми, затем открыл дверь,  войдя автобус водитель начал ругаться, разговаривал на ты грубил сказал смотри по сторонам, на следующем остановочном пункте не открыл двери требовал показать оплату, очень грубое отношение к пассажирам. примите меры.</t>
-        </is>
-      </c>
-      <c r="D120" t="n">
+      <c r="B120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2365,13 +1641,7 @@
           <t>Здравствуйте! Добавьте автобусы по маршруту #63, невозможно ехать, это даже не час пик  Кол-во файлов: 1</t>
         </is>
       </c>
-      <c r="B121" t="inlineStr"/>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>здравствуйте! добавьте автобусы по маршруту #63, невозможно ехать, это даже не час пик  кол-во файлов: 1</t>
-        </is>
-      </c>
-      <c r="D121" t="n">
+      <c r="B121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2381,13 +1651,7 @@
           <t>№4 м\а, Деловой дом «Алматы» .аялдамасынан, Микрорайон Целинный бағытына қарай, күту уақыты 17:00 ден 17:30 дейін, маршрут жүру уақытын сақтамайды.</t>
         </is>
       </c>
-      <c r="B122" t="inlineStr"/>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>№4 м\а, деловой дом «алматы» .аялдамасынан, микрорайон целинный бағытына қарай, күту уақыты 17:00 ден 17:30 дейін, маршрут жүру уақытын сақтамайды.</t>
-        </is>
-      </c>
-      <c r="D122" t="n">
+      <c r="B122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2397,13 +1661,7 @@
           <t>№84 м\а, остановка Больница Медицинского центра УДП РК, Клиника-қ оңалту кешені, в направление Тауелсиздик, время ожидание с 17:07 до 17:39, несоблюдение интервала расписание маршрута.</t>
         </is>
       </c>
-      <c r="B123" t="inlineStr"/>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>№84 м\а, остановка больница медицинского центра удп рк, клиника-қ оңалту кешені, в направление тауелсиздик, время ожидание с 17:07 до 17:39, несоблюдение интервала расписание маршрута.</t>
-        </is>
-      </c>
-      <c r="D123" t="n">
+      <c r="B123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2413,13 +1671,7 @@
           <t>52 маршрут _x000D_ не было автобуса 45 минут с 17/20-18/05_x000D_ с остановки Кардиохирургическая клиника в направление ж/м Заречный.</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr"/>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>52 маршрут _x000d_ не было автобуса 45 минут с 17/20-18/05_x000d_ с остановки кардиохирургическая клиника в направление ж/м заречный.</t>
-        </is>
-      </c>
-      <c r="D124" t="n">
+      <c r="B124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2429,13 +1681,7 @@
           <t>№ 39 бағдар, кьюар код 13112 проспект Тлендиева аялдамасынаң міңген , ТД Коктем  аялдамасынаң түскен , автобустың іші маймен , резинкенің иісі шығып тұр ! Біз ақша осы үшің төлеймізба? Төлемесен айыппұл төлейсің! Жалғыз бұл  автобустың іші емес барлық 39 бағдардың  автобустары сасық жәңе ескі жаңасына ауыстыру керек  18-09</t>
         </is>
       </c>
-      <c r="B125" t="inlineStr"/>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>№ 39 бағдар, кьюар код 13112 проспект тлендиева аялдамасынаң міңген , тд коктем  аялдамасынаң түскен , автобустың іші маймен , резинкенің иісі шығып тұр ! біз ақша осы үшің төлеймізба? төлемесен айыппұл төлейсің! жалғыз бұл  автобустың іші емес барлық 39 бағдардың  автобустары сасық жәңе ескі жаңасына ауыстыру керек  18-09</t>
-        </is>
-      </c>
-      <c r="D125" t="n">
+      <c r="B125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2445,13 +1691,7 @@
           <t>52  маршрут  аялдама  Саранда -2  сағат 18.00  келді  қазір сағат 18. 30  Салтанат  сарайы  бағытына  қарай  барады.  Күткеніне 30  минут  болды. Шара қолдануды  сұрайды.</t>
         </is>
       </c>
-      <c r="B126" t="inlineStr"/>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>52  маршрут  аялдама  саранда -2  сағат 18.00  келді  қазір сағат 18. 30  салтанат  сарайы  бағытына  қарай  барады.  күткеніне 30  минут  болды. шара қолдануды  сұрайды.</t>
-        </is>
-      </c>
-      <c r="D126" t="n">
+      <c r="B126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2461,13 +1701,7 @@
           <t>56 м/а Я пришла на остановку Торгово-развлекательный центр Керуен, 18:10 Сейчас время 18:35, автобуса до сих пор нет. Мне надо поехать в направлении остановки Жилой комплекс «Кулагер».</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr"/>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>56 м/а я пришла на остановку торгово-развлекательный центр керуен, 18:10 сейчас время 18:35, автобуса до сих пор нет. мне надо поехать в направлении остановки жилой комплекс «кулагер».</t>
-        </is>
-      </c>
-      <c r="D127" t="n">
+      <c r="B127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2477,13 +1711,7 @@
           <t>Здравствуйте . Почему постоянные перебои с маршрутом #56? Сейчас я стою на остановке "Керуен" в сторону Жағалау, уже больше 40 минут нет автобуса , людей куча. Почему-то остальные маршруты нормально ходят, а у #56  постоянно что-то не так. 18:40</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr"/>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>здравствуйте . почему постоянные перебои с маршрутом #56? сейчас я стою на остановке "керуен" в сторону жағалау, уже больше 40 минут нет автобуса , людей куча. почему-то остальные маршруты нормально ходят, а у #56  постоянно что-то не так. 18:40</t>
-        </is>
-      </c>
-      <c r="D128" t="n">
+      <c r="B128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2493,13 +1721,7 @@
           <t>№ 56 бағдар , ЖК Кулагер  Дом Министерств бағытыңа қарай сағат 18-45 пен 19-11 аралығыңда желіде болмады . Қәзір картада бірінең сон бірі келе жатыр . Кестелерің қарастыру керек .</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr"/>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>№ 56 бағдар , жк кулагер  дом министерств бағытыңа қарай сағат 18-45 пен 19-11 аралығыңда желіде болмады . қәзір картада бірінең сон бірі келе жатыр . кестелерің қарастыру керек .</t>
-        </is>
-      </c>
-      <c r="D129" t="n">
+      <c r="B129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2509,13 +1731,7 @@
           <t>автобус №71 БОРТОВОЙ НОМЕР 10889 в 19:00 на остановке Куляш Байсеитовой в направлений Городская поликлиника №5 при высадке не открыл заднею дверь, пассажирка с ребенком  стала нажимать на кнопку СТОП, кнопка не работала и водитель увез пассажирку.</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr"/>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>автобус №71 бортовой номер 10889 в 19:00 на остановке куляш байсеитовой в направлений городская поликлиника №5 при высадке не открыл заднею дверь, пассажирка с ребенком  стала нажимать на кнопку стоп, кнопка не работала и водитель увез пассажирку.</t>
-        </is>
-      </c>
-      <c r="D130" t="n">
+      <c r="B130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2525,13 +1741,7 @@
           <t>маршрут автобуса 15  киаркод 10638  остановка ж/м Железнодорожный в направлении города   остановки нету теплой и мы пассажиры хотим сесть в автобус но водитель не разрешает нам садиться  , сам выйдет покурит  постоит  только потом выезжает и садит пассажиров, должна же быть человечность на улице холодно примите меры</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr"/>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>маршрут автобуса 15  киаркод 10638  остановка ж/м железнодорожный в направлении города   остановки нету теплой и мы пассажиры хотим сесть в автобус но водитель не разрешает нам садиться  , сам выйдет покурит  постоит  только потом выезжает и садит пассажиров, должна же быть человечность на улице холодно примите меры</t>
-        </is>
-      </c>
-      <c r="D131" t="n">
+      <c r="B131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2541,13 +1751,7 @@
           <t>72 Гос. номер: 653CQ01  сағат 19:37 лерде екі үлкен кісінің жүгіріп келді,бірақ автобус келіп ,ашты жэапты  ,кетіп қалды. вОДИтельдер білгенің істейді Манаса аялдамасынан Гульжанға қарай!</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr"/>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>72 гос. номер: 653cq01  сағат 19:37 лерде екі үлкен кісінің жүгіріп келді,бірақ автобус келіп ,ашты жэапты  ,кетіп қалды. водительдер білгенің істейді манаса аялдамасынан гульжанға қарай!</t>
-        </is>
-      </c>
-      <c r="D132" t="n">
+      <c r="B132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2557,13 +1761,7 @@
           <t>автобус № 28 гос.номер 935  в 18:00 водитель Омаров, при посадке  на остановке Детская городская больница №2 в направлений Евразийский национальный университет резко закрыл среднею дверь  и зажал   бабушку  между дверями  пол тела было на улице, половина в автобусе и резко   двинулся и резко тормозил, нарушал скоростной режим. Бабушка подошла к водителю и сделала замечание, водитель  начал грубить в ответ "пошла вон, сейчас высажу тебя", " да пошла ты"  и на остановке Гипермаркет Строймарт всех высадил сказал , что автобус сломался.</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr"/>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>автобус № 28 гос.номер 935  в 18:00 водитель омаров, при посадке  на остановке детская городская больница №2 в направлений евразийский национальный университет резко закрыл среднею дверь  и зажал   бабушку  между дверями  пол тела было на улице, половина в автобусе и резко   двинулся и резко тормозил, нарушал скоростной режим. бабушка подошла к водителю и сделала замечание, водитель  начал грубить в ответ "пошла вон, сейчас высажу тебя", " да пошла ты"  и на остановке гипермаркет строймарт всех высадил сказал , что автобус сломался.</t>
-        </is>
-      </c>
-      <c r="D133" t="n">
+      <c r="B133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2573,13 +1771,7 @@
           <t>М/а 40, жалуется на несоблюдение интервала, примерно  с 19:10 до  19:38ч ожидает автобуса на ост. ЖК Экспо Сити в сторону ост. Дом министерства.  Предыдущий автобус сейчас остановку  Центр нового поколения Sana проезжает между ними большой интервал, на конечной остановке 3 автобуса стоят на перерыве. Один только выехал с конечной ост. Просит принять меры.</t>
         </is>
       </c>
-      <c r="B134" t="inlineStr"/>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>м/а 40, жалуется на несоблюдение интервала, примерно  с 19:10 до  19:38ч ожидает автобуса на ост. жк экспо сити в сторону ост. дом министерства.  предыдущий автобус сейчас остановку  центр нового поколения sana проезжает между ними большой интервал, на конечной остановке 3 автобуса стоят на перерыве. один только выехал с конечной ост. просит принять меры.</t>
-        </is>
-      </c>
-      <c r="D134" t="n">
+      <c r="B134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2589,13 +1781,7 @@
           <t xml:space="preserve"> Маршрут №11 госномер 605 время  19:42 водитель    водитель остановился  на  остановке  Байтурсунова  в направление   ЖК Социум  .Сделал  высадку  пассажиров   но  не  совершил  посадку  пассажиров .  Ожидающие пассажиры  не  успели пройти  в  м/а,  он  сразу  закрыл  дверь  и уехал .</t>
         </is>
       </c>
-      <c r="B135" t="inlineStr"/>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> маршрут №11 госномер 605 время  19:42 водитель    водитель остановился  на  остановке  байтурсунова  в направление   жк социум  .сделал  высадку  пассажиров   но  не  совершил  посадку  пассажиров .  ожидающие пассажиры  не  успели пройти  в  м/а,  он  сразу  закрыл  дверь  и уехал .</t>
-        </is>
-      </c>
-      <c r="D135" t="n">
+      <c r="B135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2605,13 +1791,7 @@
           <t>М/а 4, ост. пункт Разина направление Валиханова  время ожидания с 19:00-20:00, по телефону на карте показывало что якобы за это время три  м/а № 4 проехали, но по факту не было. Куда делись м/а просит разобраться и предоставить ответ.</t>
         </is>
       </c>
-      <c r="B136" t="inlineStr"/>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>м/а 4, ост. пункт разина направление валиханова  время ожидания с 19:00-20:00, по телефону на карте показывало что якобы за это время три  м/а № 4 проехали, но по факту не было. куда делись м/а просит разобраться и предоставить ответ.</t>
-        </is>
-      </c>
-      <c r="D136" t="n">
+      <c r="B136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2621,13 +1801,7 @@
           <t>56 маршрут аялдама    Бесшалқар   сағат 20. 25   уақытында аялдамаға   гаражный номері  С 171  және  С 131 қатар  келді. Промышленный  бағытына қарай.  Неге  бір  уақытта  2  автобус  қатар келді?</t>
         </is>
       </c>
-      <c r="B137" t="inlineStr"/>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>56 маршрут аялдама    бесшалқар   сағат 20. 25   уақытында аялдамаға   гаражный номері  с 171  және  с 131 қатар  келді. промышленный  бағытына қарай.  неге  бір  уақытта  2  автобус  қатар келді?</t>
-        </is>
-      </c>
-      <c r="D137" t="n">
+      <c r="B137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2637,13 +1811,7 @@
           <t>46 м/а  гос номер  063   , время  20:34 часов . Ехала  с ост   ТРЦ Керуен по направлению  ост  пр Сарыарка.  Внутри  салона автобуса  не объявляют остановки. Я  турист , не знаю г. Астана.   На обращение водитель , он ответил; "Кайдан блиін".  Просьба восстановить оповещение внутри салона  автобуса курсирующий  по  г. Астана  на русском и на казахском языке.</t>
         </is>
       </c>
-      <c r="B138" t="inlineStr"/>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>46 м/а  гос номер  063   , время  20:34 часов . ехала  с ост   трц керуен по направлению  ост  пр сарыарка.  внутри  салона автобуса  не объявляют остановки. я  турист , не знаю г. астана.   на обращение водитель , он ответил; "кайдан блиін".  просьба восстановить оповещение внутри салона  автобуса курсирующий  по  г. астана  на русском и на казахском языке.</t>
-        </is>
-      </c>
-      <c r="D138" t="n">
+      <c r="B138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2653,13 +1821,7 @@
           <t>маршрут 61_x000D_ 685 гос. номер _x000D_ время 20/48_x000D_ на остановке ЖК Шыгыс в сторону Центр материнства и детства, водитель закрыл двери перед пассажиром и уехал.</t>
         </is>
       </c>
-      <c r="B139" t="inlineStr"/>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>маршрут 61_x000d_ 685 гос. номер _x000d_ время 20/48_x000d_ на остановке жк шыгыс в сторону центр материнства и детства, водитель закрыл двери перед пассажиром и уехал.</t>
-        </is>
-      </c>
-      <c r="D139" t="n">
+      <c r="B139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2669,13 +1831,7 @@
           <t xml:space="preserve"> 66 маршрут  г/номер 157 Остановка Хан шатыр  в сторону поликлиники №2.Время 20:45, При посадке через переднюю дверь  водитель закрыл двери и прищемил меня дверьми. Так еще водитель начал со мной ругаться. Мне пришлось выйти из салона.Примите меры и жду обратной связи.</t>
         </is>
       </c>
-      <c r="B140" t="inlineStr"/>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 66 маршрут  г/номер 157 остановка хан шатыр  в сторону поликлиники №2.время 20:45, при посадке через переднюю дверь  водитель закрыл двери и прищемил меня дверьми. так еще водитель начал со мной ругаться. мне пришлось выйти из салона.примите меры и жду обратной связи.</t>
-        </is>
-      </c>
-      <c r="D140" t="n">
+      <c r="B140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2685,13 +1841,7 @@
           <t>Маршрут 37 , время 20.52 Остановка Депо направление город ожидаем. Нет ни одного маршрута . А направление  Астанаинерт друг за другом интервал  между ними 5 минут четыре маршрута проехали. И все пустые не соблюдают. Срочно проверить и взять во внимание.</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr"/>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>маршрут 37 , время 20.52 остановка депо направление город ожидаем. нет ни одного маршрута . а направление  астанаинерт друг за другом интервал  между ними 5 минут четыре маршрута проехали. и все пустые не соблюдают. срочно проверить и взять во внимание.</t>
-        </is>
-      </c>
-      <c r="D141" t="n">
+      <c r="B141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2701,13 +1851,7 @@
           <t>маршрут   автобуса 73  гос. номер 494  время 21.01 остановка Библиотека Отырар  в направлении остановки ТЦ Евразия автобус остановился на остановке ,двери не открыл и уехал мы стучали по дверям он видел что мы стоим на остановке внутри были пассажиры но водитель  уехал примите меры.</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr"/>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>маршрут   автобуса 73  гос. номер 494  время 21.01 остановка библиотека отырар  в направлении остановки тц евразия автобус остановился на остановке ,двери не открыл и уехал мы стучали по дверям он видел что мы стоим на остановке внутри были пассажиры но водитель  уехал примите меры.</t>
-        </is>
-      </c>
-      <c r="D142" t="n">
+      <c r="B142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2717,13 +1861,7 @@
           <t>4 маршрут аз өтеді, кунде 30,40 мин күтеміз, Азірет Сұлтан мешітінен көкталға баратын бағытта  тағы 4 маршруттын қосуын сұраймыз, қазыр 20-30 дан 21-15 ке диін тұрдым күтіп</t>
         </is>
       </c>
-      <c r="B143" t="inlineStr"/>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>4 маршрут аз өтеді, кунде 30,40 мин күтеміз, азірет сұлтан мешітінен көкталға баратын бағытта  тағы 4 маршруттын қосуын сұраймыз, қазыр 20-30 дан 21-15 ке диін тұрдым күтіп</t>
-        </is>
-      </c>
-      <c r="D143" t="n">
+      <c r="B143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2733,13 +1871,7 @@
           <t>Orynbor Tower Аялдамасы Мәңгілік Ел даңғылы,58  Кол-во файлов: 1</t>
         </is>
       </c>
-      <c r="B144" t="inlineStr"/>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>orynbor tower аялдамасы мәңгілік ел даңғылы,58  кол-во файлов: 1</t>
-        </is>
-      </c>
-      <c r="D144" t="n">
+      <c r="B144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2749,13 +1881,7 @@
           <t>22А бағдар,  Астана Технопарк аялдамасынаң ЖК Железнодорожный бағытыңа қарай сағат 21-00 мен 21-38 аралығыңда желіде болмады.</t>
         </is>
       </c>
-      <c r="B145" t="inlineStr"/>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>22а бағдар,  астана технопарк аялдамасынаң жк железнодорожный бағытыңа қарай сағат 21-00 мен 21-38 аралығыңда желіде болмады.</t>
-        </is>
-      </c>
-      <c r="D145" t="n">
+      <c r="B145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2765,13 +1891,7 @@
           <t>Ондирис  аялдамасынан до 40 станции тура баратын автобус жоқ немесе 85 м/а солай жасап қоюыңызды сұраймыз! Мұнда көп адам завод,жұмысқа барады.</t>
         </is>
       </c>
-      <c r="B146" t="inlineStr"/>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>ондирис  аялдамасынан до 40 станции тура баратын автобус жоқ немесе 85 м/а солай жасап қоюыңызды сұраймыз! мұнда көп адам завод,жұмысқа барады.</t>
-        </is>
-      </c>
-      <c r="D146" t="n">
+      <c r="B146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2781,13 +1901,7 @@
           <t>Сағат 20:50-ден 21:50-ге дейін Әйтеке би аялдамасы Омарова көшесі аялдамасы бағытында МА 56 автобусы болмады.</t>
         </is>
       </c>
-      <c r="B147" t="inlineStr"/>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>сағат 20:50-ден 21:50-ге дейін әйтеке би аялдамасы омарова көшесі аялдамасы бағытында ма 56 автобусы болмады.</t>
-        </is>
-      </c>
-      <c r="D147" t="n">
+      <c r="B147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2797,13 +1911,7 @@
           <t>Хочу выразить искренние слова благодарности водителю маршрутного автобуса №42. Не знаю молодого человека по имени-отчеству. Номер автобуса  - 284 CW 01. Из школы возвращалась на этом автобусе в обед, в 12.23. Мне особо понравилось, что по радио в салоне приятно звучали казахские песни: "Той жыры" Дос - Мукасана и другие мелодии. Музыка облагораживает человека, дарит хорошее настроение. Не зря советуют, если хочешь выучить язык, слушай песни.             Утром в 8 ч. утра, когда ехала на работу, то  в 42 автобусе мне понравилось, как во время проверки оплаты за проезд всех на казахском языке приветствует контролер Удербаева А.Ж. (на бейджике прочитала ФИО). Некоторые пассажиры не отвечали на ее доброе приветствие, на что она, мило улыбаясь, повторяла, я же поздоровалась, почему вы не отвечаете мне. Действительно, доброе слово и кошке приятно. Отрадно: и утром, и в обед увидела, что входившие в автобус студенты, школьники, стар и млад - все оплачивали сразу проезд. Часто читаю в этой группе, что много среди пассажиров -  "зайцев", которые наносят материальный урон автопаркам. Сегодня была свидетелем ответственности пассажиров. Приятно, что в салоне 42 автобуса чисто, тепло. Молодые ребята уступают места пожилым людям. Стоит отметить, что и у нас в Казахстане много доброго и положительного. Каждый на своем участке деятельности добросовестно выполняет свою работу. И люди живут в мире и согласии.</t>
         </is>
       </c>
-      <c r="B148" t="inlineStr"/>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>хочу выразить искренние слова благодарности водителю маршрутного автобуса №42. не знаю молодого человека по имени-отчеству. номер автобуса  - 284 cw 01. из школы возвращалась на этом автобусе в обед, в 12.23. мне особо понравилось, что по радио в салоне приятно звучали казахские песни: "той жыры" дос - мукасана и другие мелодии. музыка облагораживает человека, дарит хорошее настроение. не зря советуют, если хочешь выучить язык, слушай песни.             утром в 8 ч. утра, когда ехала на работу, то  в 42 автобусе мне понравилось, как во время проверки оплаты за проезд всех на казахском языке приветствует контролер удербаева а.ж. (на бейджике прочитала фио). некоторые пассажиры не отвечали на ее доброе приветствие, на что она, мило улыбаясь, повторяла, я же поздоровалась, почему вы не отвечаете мне. действительно, доброе слово и кошке приятно. отрадно: и утром, и в обед увидела, что входившие в автобус студенты, школьники, стар и млад - все оплачивали сразу проезд. часто читаю в этой группе, что много среди пассажиров -  "зайцев", которые наносят материальный урон автопаркам. сегодня была свидетелем ответственности пассажиров. приятно, что в салоне 42 автобуса чисто, тепло. молодые ребята уступают места пожилым людям. стоит отметить, что и у нас в казахстане много доброго и положительного. каждый на своем участке деятельности добросовестно выполняет свою работу. и люди живут в мире и согласии.</t>
-        </is>
-      </c>
-      <c r="D148" t="n">
+      <c r="B148" t="n">
         <v>1</v>
       </c>
     </row>
